--- a/OpenCart-ManualTesting-main/Test Execution (Open Cart ).xlsx
+++ b/OpenCart-ManualTesting-main/Test Execution (Open Cart ).xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2928" uniqueCount="1297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2928" uniqueCount="1294">
   <si>
     <t>Project Name</t>
   </si>
@@ -4352,9 +4352,6 @@
     <t>Validate adding the product to 'Wish List' from the Product Display page</t>
   </si>
   <si>
-    <t>1. Open the Application URL and Login</t>
-  </si>
-  <si>
     <t>1. Enter any existing Product name into the Search text box field  - &lt;Refer Test Data&gt;
 2. Click on the button having search icon
 3. Click on the Product displayed in the Search results
@@ -4373,9 +4370,6 @@
     <t>Validate adding the product for comparision from the Product Display page</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Open the Application URL </t>
-  </si>
-  <si>
     <t>1. Enter any existing Product name into the Search text box field  - &lt;Refer Test Data&gt;
 2. Click on the button having search icon
 3. Click on the Product displayed in the Search results
@@ -4427,10 +4421,6 @@
     <t>Validate navigating to the Product Display page by using the Product image in the 'Wish List' page</t>
   </si>
   <si>
-    <t>1. Open the Application URL and Login
-2.A product is added to the Wish List page</t>
-  </si>
-  <si>
     <t>1. Click on the 'Wish List' header option
 2. Click on the Image icon displayed under the 'Image' section of the displayed 'Wish List' page (Validate ER-1)</t>
   </si>
@@ -4455,10 +4445,6 @@
   </si>
   <si>
     <t>Validate navigating to the Product Display page by using the Product Name link in Success message on adding the Product to Cart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Open the Application URL and Login
-</t>
   </si>
   <si>
     <t>1. Enter any existing Product name into the Search text box field  - &lt;Refer Test Data&gt;
@@ -6068,6 +6054,9 @@
   </si>
   <si>
     <t>Vishal Wakchaure</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Open the Application URL in any supported browser</t>
   </si>
 </sst>
 </file>
@@ -6969,7 +6958,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="87" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="15.75" customHeight="1">
@@ -7600,25 +7589,25 @@
     </row>
     <row r="2" spans="1:11" ht="176.25" customHeight="1">
       <c r="A2" s="31" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="D2" s="32" t="s">
         <v>413</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="F2" s="32" t="s">
         <v>575</v>
       </c>
       <c r="G2" s="32" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="H2" s="31" t="s">
         <v>785</v>
@@ -7633,25 +7622,25 @@
     </row>
     <row r="3" spans="1:11" ht="78.75" customHeight="1">
       <c r="A3" s="37" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="F3" s="38" t="s">
         <v>575</v>
       </c>
       <c r="G3" s="38" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="H3" s="37" t="s">
         <v>785</v>
@@ -7666,25 +7655,25 @@
     </row>
     <row r="4" spans="1:11" ht="81.75" customHeight="1">
       <c r="A4" s="37" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="C4" s="69" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="F4" s="38" t="s">
         <v>99</v>
       </c>
       <c r="G4" s="38" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="H4" s="37" t="s">
         <v>785</v>
@@ -7699,25 +7688,25 @@
     </row>
     <row r="5" spans="1:11" ht="96.75" customHeight="1">
       <c r="A5" s="37" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="D5" s="38" t="s">
         <v>413</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="F5" s="38" t="s">
         <v>99</v>
       </c>
       <c r="G5" s="38" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="H5" s="37" t="s">
         <v>785</v>
@@ -7732,25 +7721,25 @@
     </row>
     <row r="6" spans="1:11" ht="124.5" customHeight="1">
       <c r="A6" s="37" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="D6" s="38" t="s">
         <v>413</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="F6" s="38" t="s">
         <v>99</v>
       </c>
       <c r="G6" s="38" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="H6" s="37" t="s">
         <v>785</v>
@@ -7765,25 +7754,25 @@
     </row>
     <row r="7" spans="1:11" ht="87" customHeight="1">
       <c r="A7" s="37" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="D7" s="38" t="s">
         <v>413</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="F7" s="38" t="s">
         <v>99</v>
       </c>
       <c r="G7" s="38" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="H7" s="37" t="s">
         <v>785</v>
@@ -7798,25 +7787,25 @@
     </row>
     <row r="8" spans="1:11" ht="148.5">
       <c r="A8" s="37" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="D8" s="38" t="s">
         <v>413</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="F8" s="38" t="s">
         <v>99</v>
       </c>
       <c r="G8" s="38" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="H8" s="37" t="s">
         <v>785</v>
@@ -7831,25 +7820,25 @@
     </row>
     <row r="9" spans="1:11" ht="63" customHeight="1">
       <c r="A9" s="37" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="F9" s="38" t="s">
         <v>99</v>
       </c>
       <c r="G9" s="38" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="H9" s="37" t="s">
         <v>785</v>
@@ -7864,25 +7853,25 @@
     </row>
     <row r="10" spans="1:11" ht="60" customHeight="1">
       <c r="A10" s="37" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="F10" s="38" t="s">
         <v>99</v>
       </c>
       <c r="G10" s="38" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="H10" s="37" t="s">
         <v>785</v>
@@ -7897,25 +7886,25 @@
     </row>
     <row r="11" spans="1:11" ht="63" customHeight="1">
       <c r="A11" s="37" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="D11" s="38" t="s">
         <v>573</v>
       </c>
       <c r="E11" s="38" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="F11" s="38" t="s">
         <v>99</v>
       </c>
       <c r="G11" s="38" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="H11" s="37" t="s">
         <v>785</v>
@@ -8007,25 +7996,25 @@
     </row>
     <row r="2" spans="1:11" ht="60" customHeight="1">
       <c r="A2" s="31" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B2" s="71" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E2" s="32" t="s">
         <v>1012</v>
-      </c>
-      <c r="B2" s="71" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>1014</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>1015</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>1016</v>
       </c>
       <c r="F2" s="32" t="s">
         <v>99</v>
       </c>
       <c r="G2" s="32" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="H2" s="72" t="s">
         <v>785</v>
@@ -8040,25 +8029,25 @@
     </row>
     <row r="3" spans="1:11" ht="182.25" customHeight="1">
       <c r="A3" s="37" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="D3" s="38" t="s">
         <v>413</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="F3" s="38" t="s">
         <v>575</v>
       </c>
       <c r="G3" s="38" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="H3" s="73" t="s">
         <v>785</v>
@@ -8073,25 +8062,25 @@
     </row>
     <row r="4" spans="1:11" ht="72.75" customHeight="1">
       <c r="A4" s="37" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="F4" s="38" t="s">
         <v>575</v>
       </c>
       <c r="G4" s="38" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="H4" s="73" t="s">
         <v>785</v>
@@ -8106,25 +8095,25 @@
     </row>
     <row r="5" spans="1:11" ht="84" customHeight="1">
       <c r="A5" s="37" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="D5" s="38" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E5" s="38" t="s">
         <v>1024</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>1028</v>
       </c>
       <c r="F5" s="38" t="s">
         <v>575</v>
       </c>
       <c r="G5" s="38" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="H5" s="73" t="s">
         <v>785</v>
@@ -8139,25 +8128,25 @@
     </row>
     <row r="6" spans="1:11" ht="235.5" customHeight="1">
       <c r="A6" s="37" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="F6" s="38" t="s">
         <v>575</v>
       </c>
       <c r="G6" s="38" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="H6" s="73" t="s">
         <v>785</v>
@@ -8172,25 +8161,25 @@
     </row>
     <row r="7" spans="1:11" ht="297.75" customHeight="1">
       <c r="A7" s="37" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="F7" s="38" t="s">
         <v>575</v>
       </c>
       <c r="G7" s="38" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="H7" s="73" t="s">
         <v>785</v>
@@ -8205,25 +8194,25 @@
     </row>
     <row r="8" spans="1:11" ht="296.25" customHeight="1">
       <c r="A8" s="37" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="F8" s="38" t="s">
         <v>575</v>
       </c>
       <c r="G8" s="38" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="H8" s="73" t="s">
         <v>785</v>
@@ -8238,25 +8227,25 @@
     </row>
     <row r="9" spans="1:11" ht="190.5" customHeight="1">
       <c r="A9" s="37" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="F9" s="38" t="s">
         <v>575</v>
       </c>
       <c r="G9" s="38" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="H9" s="73" t="s">
         <v>785</v>
@@ -8271,25 +8260,25 @@
     </row>
     <row r="10" spans="1:11" ht="171" customHeight="1">
       <c r="A10" s="37" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="F10" s="38" t="s">
         <v>575</v>
       </c>
       <c r="G10" s="38" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="H10" s="73" t="s">
         <v>785</v>
@@ -8304,25 +8293,25 @@
     </row>
     <row r="11" spans="1:11" ht="288" customHeight="1">
       <c r="A11" s="37" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="E11" s="38" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="F11" s="38" t="s">
         <v>575</v>
       </c>
       <c r="G11" s="38" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="H11" s="73" t="s">
         <v>785</v>
@@ -8337,25 +8326,25 @@
     </row>
     <row r="12" spans="1:11" ht="324" customHeight="1">
       <c r="A12" s="37" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="F12" s="38" t="s">
         <v>575</v>
       </c>
       <c r="G12" s="38" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="H12" s="73" t="s">
         <v>785</v>
@@ -8370,25 +8359,25 @@
     </row>
     <row r="13" spans="1:11" ht="219.75" customHeight="1">
       <c r="A13" s="37" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="E13" s="38" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="F13" s="38" t="s">
         <v>575</v>
       </c>
       <c r="G13" s="38" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="H13" s="73" t="s">
         <v>785</v>
@@ -8403,25 +8392,25 @@
     </row>
     <row r="14" spans="1:11" ht="199.5" customHeight="1">
       <c r="A14" s="37" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="F14" s="38" t="s">
         <v>575</v>
       </c>
       <c r="G14" s="38" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="H14" s="73" t="s">
         <v>785</v>
@@ -8436,25 +8425,25 @@
     </row>
     <row r="15" spans="1:11" ht="251.25" customHeight="1">
       <c r="A15" s="37" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="E15" s="38" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="F15" s="38" t="s">
         <v>575</v>
       </c>
       <c r="G15" s="38" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="H15" s="73" t="s">
         <v>785</v>
@@ -8469,25 +8458,25 @@
     </row>
     <row r="16" spans="1:11" ht="246.75" customHeight="1">
       <c r="A16" s="37" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="E16" s="38" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="F16" s="38" t="s">
         <v>575</v>
       </c>
       <c r="G16" s="38" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="H16" s="73" t="s">
         <v>785</v>
@@ -8502,25 +8491,25 @@
     </row>
     <row r="17" spans="1:11" ht="276" customHeight="1">
       <c r="A17" s="37" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="E17" s="38" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="F17" s="38" t="s">
         <v>575</v>
       </c>
       <c r="G17" s="38" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="H17" s="73" t="s">
         <v>785</v>
@@ -8535,25 +8524,25 @@
     </row>
     <row r="18" spans="1:11" ht="267" customHeight="1">
       <c r="A18" s="37" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="E18" s="38" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="F18" s="38" t="s">
         <v>575</v>
       </c>
       <c r="G18" s="38" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="H18" s="73" t="s">
         <v>785</v>
@@ -8568,25 +8557,25 @@
     </row>
     <row r="19" spans="1:11" ht="264.75" customHeight="1">
       <c r="A19" s="37" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="D19" s="38" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="E19" s="38" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="F19" s="38" t="s">
         <v>575</v>
       </c>
       <c r="G19" s="38" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="H19" s="73" t="s">
         <v>785</v>
@@ -8601,25 +8590,25 @@
     </row>
     <row r="20" spans="1:11" ht="63.75" customHeight="1">
       <c r="A20" s="37" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="B20" s="38" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="E20" s="38" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="F20" s="38" t="s">
         <v>99</v>
       </c>
       <c r="G20" s="38" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="H20" s="73" t="s">
         <v>785</v>
@@ -8634,25 +8623,25 @@
     </row>
     <row r="21" spans="1:11" ht="76.5" customHeight="1">
       <c r="A21" s="37" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="B21" s="38" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="D21" s="38" t="s">
         <v>573</v>
       </c>
       <c r="E21" s="38" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="F21" s="38" t="s">
         <v>99</v>
       </c>
       <c r="G21" s="38" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="H21" s="73" t="s">
         <v>785</v>
@@ -8745,25 +8734,25 @@
     </row>
     <row r="2" spans="1:11" ht="74.25" customHeight="1">
       <c r="A2" s="31" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E2" s="32" t="s">
         <v>1091</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>1092</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>1093</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>1094</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>1095</v>
       </c>
       <c r="F2" s="32" t="s">
         <v>575</v>
       </c>
       <c r="G2" s="32" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="H2" s="31" t="s">
         <v>785</v>
@@ -8778,25 +8767,25 @@
     </row>
     <row r="3" spans="1:11" ht="144.75" customHeight="1">
       <c r="A3" s="37" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="D3" s="38" t="s">
         <v>413</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="F3" s="38" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="G3" s="38" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="H3" s="37" t="s">
         <v>785</v>
@@ -8811,25 +8800,25 @@
     </row>
     <row r="4" spans="1:11" ht="72" customHeight="1">
       <c r="A4" s="37" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="F4" s="38" t="s">
         <v>99</v>
       </c>
       <c r="G4" s="38" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="H4" s="37" t="s">
         <v>785</v>
@@ -8844,25 +8833,25 @@
     </row>
     <row r="5" spans="1:11" ht="75" customHeight="1">
       <c r="A5" s="37" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="F5" s="38" t="s">
         <v>99</v>
       </c>
       <c r="G5" s="38" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="H5" s="37" t="s">
         <v>785</v>
@@ -8877,25 +8866,25 @@
     </row>
     <row r="6" spans="1:11" ht="77.25" customHeight="1">
       <c r="A6" s="37" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="F6" s="38" t="s">
         <v>99</v>
       </c>
       <c r="G6" s="38" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="H6" s="37" t="s">
         <v>785</v>
@@ -8910,25 +8899,25 @@
     </row>
     <row r="7" spans="1:11" ht="90.75" customHeight="1">
       <c r="A7" s="37" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="F7" s="38" t="s">
         <v>99</v>
       </c>
       <c r="G7" s="38" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="H7" s="37" t="s">
         <v>785</v>
@@ -8943,25 +8932,25 @@
     </row>
     <row r="8" spans="1:11" ht="96.75" customHeight="1">
       <c r="A8" s="37" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="F8" s="38" t="s">
         <v>99</v>
       </c>
       <c r="G8" s="38" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="H8" s="37" t="s">
         <v>785</v>
@@ -8976,25 +8965,25 @@
     </row>
     <row r="9" spans="1:11" ht="84" customHeight="1">
       <c r="A9" s="37" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="F9" s="38" t="s">
         <v>99</v>
       </c>
       <c r="G9" s="38" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="H9" s="37" t="s">
         <v>785</v>
@@ -9009,25 +8998,25 @@
     </row>
     <row r="10" spans="1:11" ht="90" customHeight="1">
       <c r="A10" s="37" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="D10" s="38" t="s">
         <v>573</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="F10" s="38" t="s">
         <v>99</v>
       </c>
       <c r="G10" s="38" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="H10" s="37" t="s">
         <v>785</v>
@@ -9107,25 +9096,25 @@
     </row>
     <row r="2" spans="1:11" ht="74.25" customHeight="1">
       <c r="A2" s="31" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="F2" s="32" t="s">
         <v>99</v>
       </c>
       <c r="G2" s="32" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="H2" s="31" t="s">
         <v>785</v>
@@ -9140,25 +9129,25 @@
     </row>
     <row r="3" spans="1:11" ht="59.25" customHeight="1">
       <c r="A3" s="37" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="F3" s="38" t="s">
         <v>99</v>
       </c>
       <c r="G3" s="38" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="H3" s="37" t="s">
         <v>785</v>
@@ -9173,25 +9162,25 @@
     </row>
     <row r="4" spans="1:11" ht="68.25" customHeight="1">
       <c r="A4" s="37" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="F4" s="38" t="s">
         <v>99</v>
       </c>
       <c r="G4" s="38" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="H4" s="37" t="s">
         <v>785</v>
@@ -9206,25 +9195,25 @@
     </row>
     <row r="5" spans="1:11" ht="121.5" customHeight="1">
       <c r="A5" s="37" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F5" s="69" t="s">
+        <v>1137</v>
+      </c>
+      <c r="G5" s="38" t="s">
         <v>1138</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>1128</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>1139</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>1031</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>1140</v>
-      </c>
-      <c r="F5" s="69" t="s">
-        <v>1141</v>
-      </c>
-      <c r="G5" s="38" t="s">
-        <v>1142</v>
       </c>
       <c r="H5" s="37" t="s">
         <v>785</v>
@@ -9239,25 +9228,25 @@
     </row>
     <row r="6" spans="1:11" ht="99" customHeight="1">
       <c r="A6" s="37" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="F6" s="38" t="s">
         <v>99</v>
       </c>
       <c r="G6" s="75" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="H6" s="37" t="s">
         <v>785</v>
@@ -9272,25 +9261,25 @@
     </row>
     <row r="7" spans="1:11" ht="109.5" customHeight="1">
       <c r="A7" s="37" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="F7" s="38" t="s">
         <v>99</v>
       </c>
       <c r="G7" s="38" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="H7" s="37" t="s">
         <v>785</v>
@@ -9305,25 +9294,25 @@
     </row>
     <row r="8" spans="1:11" ht="99" customHeight="1">
       <c r="A8" s="37" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="F8" s="38" t="s">
         <v>99</v>
       </c>
       <c r="G8" s="38" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="H8" s="37" t="s">
         <v>785</v>
@@ -9338,25 +9327,25 @@
     </row>
     <row r="9" spans="1:11" ht="98.25" customHeight="1">
       <c r="A9" s="37" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="F9" s="38" t="s">
         <v>99</v>
       </c>
       <c r="G9" s="38" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="H9" s="37" t="s">
         <v>785</v>
@@ -9371,25 +9360,25 @@
     </row>
     <row r="10" spans="1:11" ht="104.25" customHeight="1">
       <c r="A10" s="37" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="F10" s="38" t="s">
         <v>99</v>
       </c>
       <c r="G10" s="38" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="H10" s="37" t="s">
         <v>785</v>
@@ -9404,25 +9393,25 @@
     </row>
     <row r="11" spans="1:11" ht="99" customHeight="1">
       <c r="A11" s="37" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="E11" s="38" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="F11" s="38" t="s">
         <v>99</v>
       </c>
       <c r="G11" s="38" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="H11" s="37" t="s">
         <v>785</v>
@@ -9437,25 +9426,25 @@
     </row>
     <row r="12" spans="1:11" ht="126" customHeight="1">
       <c r="A12" s="37" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="F12" s="38" t="s">
         <v>99</v>
       </c>
       <c r="G12" s="38" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="H12" s="37" t="s">
         <v>785</v>
@@ -9470,25 +9459,25 @@
     </row>
     <row r="13" spans="1:11" ht="87" customHeight="1">
       <c r="A13" s="37" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="E13" s="38" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="F13" s="38" t="s">
         <v>99</v>
       </c>
       <c r="G13" s="38" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="H13" s="37" t="s">
         <v>785</v>
@@ -9503,25 +9492,25 @@
     </row>
     <row r="14" spans="1:11" ht="78.75" customHeight="1">
       <c r="A14" s="37" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="F14" s="38" t="s">
         <v>99</v>
       </c>
       <c r="G14" s="38" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="H14" s="37" t="s">
         <v>785</v>
@@ -9601,25 +9590,25 @@
     </row>
     <row r="2" spans="1:11" ht="87" customHeight="1">
       <c r="A2" s="76" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E2" s="32" t="s">
         <v>1178</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>1179</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>1180</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>1181</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>1182</v>
       </c>
       <c r="F2" s="32" t="s">
         <v>99</v>
       </c>
       <c r="G2" s="32" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="H2" s="31" t="s">
         <v>785</v>
@@ -9634,25 +9623,25 @@
     </row>
     <row r="3" spans="1:11" ht="84.75" customHeight="1">
       <c r="A3" s="37" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="F3" s="38" t="s">
         <v>99</v>
       </c>
       <c r="G3" s="38" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="H3" s="37" t="s">
         <v>785</v>
@@ -9667,25 +9656,25 @@
     </row>
     <row r="4" spans="1:11" ht="79.5" customHeight="1">
       <c r="A4" s="37" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="F4" s="38" t="s">
         <v>99</v>
       </c>
       <c r="G4" s="38" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
       <c r="H4" s="37" t="s">
         <v>785</v>
@@ -9700,25 +9689,25 @@
     </row>
     <row r="5" spans="1:11" ht="81" customHeight="1">
       <c r="A5" s="37" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
       <c r="F5" s="38" t="s">
         <v>99</v>
       </c>
       <c r="G5" s="38" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
       <c r="H5" s="37" t="s">
         <v>785</v>
@@ -9733,25 +9722,25 @@
     </row>
     <row r="6" spans="1:11" ht="92.25" customHeight="1">
       <c r="A6" s="37" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
       <c r="F6" s="38" t="s">
         <v>99</v>
       </c>
       <c r="G6" s="38" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="H6" s="37" t="s">
         <v>785</v>
@@ -9766,25 +9755,25 @@
     </row>
     <row r="7" spans="1:11" ht="103.5" customHeight="1">
       <c r="A7" s="37" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="F7" s="38" t="s">
         <v>99</v>
       </c>
       <c r="G7" s="38" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="H7" s="37" t="s">
         <v>785</v>
@@ -9799,25 +9788,25 @@
     </row>
     <row r="8" spans="1:11" ht="133.5" customHeight="1">
       <c r="A8" s="37" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>1203</v>
+        <v>1199</v>
       </c>
       <c r="F8" s="38" t="s">
         <v>99</v>
       </c>
       <c r="G8" s="38" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="H8" s="37" t="s">
         <v>785</v>
@@ -9832,25 +9821,25 @@
     </row>
     <row r="9" spans="1:11" ht="173.25" customHeight="1">
       <c r="A9" s="37" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="F9" s="38" t="s">
         <v>99</v>
       </c>
       <c r="G9" s="38" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="H9" s="37" t="s">
         <v>785</v>
@@ -9865,25 +9854,25 @@
     </row>
     <row r="10" spans="1:11" ht="141.75" customHeight="1">
       <c r="A10" s="37" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="F10" s="38" t="s">
         <v>99</v>
       </c>
       <c r="G10" s="38" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
       <c r="H10" s="37" t="s">
         <v>785</v>
@@ -9898,25 +9887,25 @@
     </row>
     <row r="11" spans="1:11" ht="93.75" customHeight="1">
       <c r="A11" s="37" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="E11" s="38" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="F11" s="38" t="s">
         <v>99</v>
       </c>
       <c r="G11" s="38" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
       <c r="H11" s="37" t="s">
         <v>785</v>
@@ -9931,25 +9920,25 @@
     </row>
     <row r="12" spans="1:11" ht="81" customHeight="1">
       <c r="A12" s="37" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="F12" s="38" t="s">
         <v>99</v>
       </c>
       <c r="G12" s="38" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
       <c r="H12" s="37" t="s">
         <v>785</v>
@@ -9964,25 +9953,25 @@
     </row>
     <row r="13" spans="1:11" ht="75.75" customHeight="1">
       <c r="A13" s="37" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
       <c r="E13" s="38" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="F13" s="38" t="s">
         <v>99</v>
       </c>
       <c r="G13" s="38" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="H13" s="37" t="s">
         <v>785</v>
@@ -9997,25 +9986,25 @@
     </row>
     <row r="14" spans="1:11" ht="94.5" customHeight="1">
       <c r="A14" s="37" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="F14" s="38" t="s">
         <v>99</v>
       </c>
       <c r="G14" s="38" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="H14" s="37" t="s">
         <v>785</v>
@@ -10094,25 +10083,25 @@
     </row>
     <row r="2" spans="1:26" ht="89.25" customHeight="1">
       <c r="A2" s="31" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="D2" s="32" t="s">
         <v>413</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>1233</v>
+        <v>1229</v>
       </c>
       <c r="F2" s="32" t="s">
         <v>99</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="H2" s="31" t="s">
         <v>785</v>
@@ -10127,25 +10116,25 @@
     </row>
     <row r="3" spans="1:26" ht="64.5" customHeight="1">
       <c r="A3" s="37" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>1236</v>
+        <v>1232</v>
       </c>
       <c r="D3" s="38" t="s">
         <v>413</v>
       </c>
       <c r="E3" s="39" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
       <c r="F3" s="38" t="s">
         <v>99</v>
       </c>
       <c r="G3" s="39" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="H3" s="37" t="s">
         <v>785</v>
@@ -10160,25 +10149,25 @@
     </row>
     <row r="4" spans="1:26" ht="251.25" customHeight="1">
       <c r="A4" s="37" t="s">
-        <v>1238</v>
+        <v>1234</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>1239</v>
+        <v>1235</v>
       </c>
       <c r="D4" s="38" t="s">
         <v>413</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="F4" s="38" t="s">
         <v>575</v>
       </c>
       <c r="G4" s="38" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="H4" s="37" t="s">
         <v>785</v>
@@ -10208,25 +10197,25 @@
     </row>
     <row r="5" spans="1:26" ht="126" customHeight="1">
       <c r="A5" s="37" t="s">
-        <v>1241</v>
+        <v>1237</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="D5" s="38" t="s">
         <v>413</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="F5" s="38" t="s">
         <v>99</v>
       </c>
       <c r="G5" s="39" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
       <c r="H5" s="37" t="s">
         <v>785</v>
@@ -10241,25 +10230,25 @@
     </row>
     <row r="6" spans="1:26" ht="100.5" customHeight="1">
       <c r="A6" s="37" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
       <c r="D6" s="38" t="s">
         <v>413</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="F6" s="38" t="s">
         <v>99</v>
       </c>
       <c r="G6" s="39" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="H6" s="37" t="s">
         <v>785</v>
@@ -10274,28 +10263,28 @@
     </row>
     <row r="7" spans="1:26" ht="108.75" customHeight="1">
       <c r="A7" s="37" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="F7" s="38" t="s">
         <v>99</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="H7" s="37" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="I7" s="41" t="s">
         <v>25</v>
@@ -10307,25 +10296,25 @@
     </row>
     <row r="8" spans="1:26" ht="90" customHeight="1">
       <c r="A8" s="37" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="F8" s="38" t="s">
         <v>99</v>
       </c>
       <c r="G8" s="39" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
       <c r="H8" s="37" t="s">
         <v>785</v>
@@ -10340,25 +10329,25 @@
     </row>
     <row r="9" spans="1:26" ht="126.75" customHeight="1">
       <c r="A9" s="37" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>1185</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>1256</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>1257</v>
+      </c>
+      <c r="G9" s="39" t="s">
         <v>1258</v>
-      </c>
-      <c r="B9" s="38" t="s">
-        <v>1231</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>1259</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>1189</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>1260</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>1261</v>
-      </c>
-      <c r="G9" s="39" t="s">
-        <v>1262</v>
       </c>
       <c r="H9" s="37" t="s">
         <v>785</v>
@@ -10373,25 +10362,25 @@
     </row>
     <row r="10" spans="1:26" ht="138.75" customHeight="1">
       <c r="A10" s="37" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="D10" s="38" t="s">
         <v>437</v>
       </c>
       <c r="E10" s="39" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="F10" s="38" t="s">
         <v>99</v>
       </c>
       <c r="G10" s="39" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="H10" s="37" t="s">
         <v>785</v>
@@ -10406,25 +10395,25 @@
     </row>
     <row r="11" spans="1:26" ht="79.5" customHeight="1">
       <c r="A11" s="37" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="E11" s="39" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F11" s="38" t="s">
         <v>99</v>
       </c>
       <c r="G11" s="39" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="H11" s="37" t="s">
         <v>785</v>
@@ -10439,25 +10428,25 @@
     </row>
     <row r="12" spans="1:26" ht="75.75" customHeight="1">
       <c r="A12" s="37" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="E12" s="39" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="F12" s="38" t="s">
         <v>99</v>
       </c>
       <c r="G12" s="39" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="H12" s="37" t="s">
         <v>785</v>
@@ -10472,25 +10461,25 @@
     </row>
     <row r="13" spans="1:26" ht="61.5" customHeight="1">
       <c r="A13" s="37" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
       <c r="E13" s="39" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="F13" s="38" t="s">
         <v>99</v>
       </c>
       <c r="G13" s="39" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="H13" s="37" t="s">
         <v>785</v>
@@ -10505,25 +10494,25 @@
     </row>
     <row r="14" spans="1:26" ht="100.5" customHeight="1">
       <c r="A14" s="37" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
       <c r="E14" s="39" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="F14" s="38" t="s">
         <v>99</v>
       </c>
       <c r="G14" s="39" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="H14" s="37" t="s">
         <v>785</v>
@@ -10617,25 +10606,25 @@
     </row>
     <row r="2" spans="1:11" ht="70.5" customHeight="1">
       <c r="A2" s="79" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="C2" s="49" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="D2" s="77" t="s">
         <v>413</v>
       </c>
       <c r="E2" s="77" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="F2" s="49" t="s">
         <v>99</v>
       </c>
       <c r="G2" s="77" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="H2" s="80" t="s">
         <v>785</v>
@@ -10650,25 +10639,25 @@
     </row>
     <row r="3" spans="1:11" ht="98.25" customHeight="1">
       <c r="A3" s="83" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
       <c r="B3" s="50" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="C3" s="50" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="D3" s="43" t="s">
         <v>413</v>
       </c>
       <c r="E3" s="43" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="F3" s="50" t="s">
         <v>99</v>
       </c>
       <c r="G3" s="43" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="H3" s="84" t="s">
         <v>785</v>
@@ -10683,25 +10672,25 @@
     </row>
     <row r="4" spans="1:11" ht="95.25" customHeight="1">
       <c r="A4" s="83" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="B4" s="50" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="C4" s="50" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="D4" s="43" t="s">
         <v>413</v>
       </c>
       <c r="E4" s="43" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="F4" s="50" t="s">
         <v>99</v>
       </c>
       <c r="G4" s="43" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="H4" s="84" t="s">
         <v>785</v>
@@ -43420,8 +43409,8 @@
   </sheetPr>
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H31" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -43437,7 +43426,7 @@
     <col min="11" max="11" width="26.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="96" customFormat="1" ht="33.75" customHeight="1">
+    <row r="1" spans="1:11" s="89" customFormat="1" ht="33.75" customHeight="1">
       <c r="A1" s="102" t="s">
         <v>84</v>
       </c>
@@ -43482,8 +43471,8 @@
       <c r="C2" s="32" t="s">
         <v>782</v>
       </c>
-      <c r="D2" s="32" t="s">
-        <v>413</v>
+      <c r="D2" s="69" t="s">
+        <v>1293</v>
       </c>
       <c r="E2" s="32" t="s">
         <v>783</v>
@@ -43515,8 +43504,8 @@
       <c r="C3" s="38" t="s">
         <v>787</v>
       </c>
-      <c r="D3" s="38" t="s">
-        <v>413</v>
+      <c r="D3" s="69" t="s">
+        <v>1293</v>
       </c>
       <c r="E3" s="38" t="s">
         <v>788</v>
@@ -43548,8 +43537,8 @@
       <c r="C4" s="38" t="s">
         <v>792</v>
       </c>
-      <c r="D4" s="38" t="s">
-        <v>413</v>
+      <c r="D4" s="69" t="s">
+        <v>1293</v>
       </c>
       <c r="E4" s="38" t="s">
         <v>793</v>
@@ -43581,8 +43570,8 @@
       <c r="C5" s="38" t="s">
         <v>797</v>
       </c>
-      <c r="D5" s="38" t="s">
-        <v>413</v>
+      <c r="D5" s="69" t="s">
+        <v>1293</v>
       </c>
       <c r="E5" s="38" t="s">
         <v>798</v>
@@ -43614,8 +43603,8 @@
       <c r="C6" s="38" t="s">
         <v>802</v>
       </c>
-      <c r="D6" s="38" t="s">
-        <v>413</v>
+      <c r="D6" s="69" t="s">
+        <v>1293</v>
       </c>
       <c r="E6" s="38" t="s">
         <v>803</v>
@@ -43647,8 +43636,8 @@
       <c r="C7" s="38" t="s">
         <v>806</v>
       </c>
-      <c r="D7" s="38" t="s">
-        <v>413</v>
+      <c r="D7" s="69" t="s">
+        <v>1293</v>
       </c>
       <c r="E7" s="38" t="s">
         <v>807</v>
@@ -43682,8 +43671,8 @@
       <c r="C8" s="38" t="s">
         <v>812</v>
       </c>
-      <c r="D8" s="38" t="s">
-        <v>413</v>
+      <c r="D8" s="69" t="s">
+        <v>1293</v>
       </c>
       <c r="E8" s="38" t="s">
         <v>813</v>
@@ -43715,8 +43704,8 @@
       <c r="C9" s="38" t="s">
         <v>817</v>
       </c>
-      <c r="D9" s="38" t="s">
-        <v>413</v>
+      <c r="D9" s="69" t="s">
+        <v>1293</v>
       </c>
       <c r="E9" s="38" t="s">
         <v>818</v>
@@ -43748,8 +43737,8 @@
       <c r="C10" s="38" t="s">
         <v>821</v>
       </c>
-      <c r="D10" s="38" t="s">
-        <v>413</v>
+      <c r="D10" s="69" t="s">
+        <v>1293</v>
       </c>
       <c r="E10" s="38" t="s">
         <v>822</v>
@@ -43781,8 +43770,8 @@
       <c r="C11" s="38" t="s">
         <v>825</v>
       </c>
-      <c r="D11" s="38" t="s">
-        <v>413</v>
+      <c r="D11" s="69" t="s">
+        <v>1293</v>
       </c>
       <c r="E11" s="38" t="s">
         <v>826</v>
@@ -43814,8 +43803,8 @@
       <c r="C12" s="38" t="s">
         <v>829</v>
       </c>
-      <c r="D12" s="38" t="s">
-        <v>413</v>
+      <c r="D12" s="69" t="s">
+        <v>1293</v>
       </c>
       <c r="E12" s="38" t="s">
         <v>830</v>
@@ -43847,8 +43836,8 @@
       <c r="C13" s="38" t="s">
         <v>833</v>
       </c>
-      <c r="D13" s="38" t="s">
-        <v>413</v>
+      <c r="D13" s="69" t="s">
+        <v>1293</v>
       </c>
       <c r="E13" s="38" t="s">
         <v>834</v>
@@ -43880,8 +43869,8 @@
       <c r="C14" s="38" t="s">
         <v>837</v>
       </c>
-      <c r="D14" s="38" t="s">
-        <v>413</v>
+      <c r="D14" s="69" t="s">
+        <v>1293</v>
       </c>
       <c r="E14" s="38" t="s">
         <v>838</v>
@@ -43913,8 +43902,8 @@
       <c r="C15" s="38" t="s">
         <v>841</v>
       </c>
-      <c r="D15" s="38" t="s">
-        <v>413</v>
+      <c r="D15" s="69" t="s">
+        <v>1293</v>
       </c>
       <c r="E15" s="38" t="s">
         <v>842</v>
@@ -43946,8 +43935,8 @@
       <c r="C16" s="38" t="s">
         <v>845</v>
       </c>
-      <c r="D16" s="38" t="s">
-        <v>413</v>
+      <c r="D16" s="69" t="s">
+        <v>1293</v>
       </c>
       <c r="E16" s="38" t="s">
         <v>846</v>
@@ -43979,8 +43968,8 @@
       <c r="C17" s="38" t="s">
         <v>849</v>
       </c>
-      <c r="D17" s="38" t="s">
-        <v>413</v>
+      <c r="D17" s="69" t="s">
+        <v>1293</v>
       </c>
       <c r="E17" s="38" t="s">
         <v>850</v>
@@ -44012,8 +44001,8 @@
       <c r="C18" s="38" t="s">
         <v>853</v>
       </c>
-      <c r="D18" s="38" t="s">
-        <v>413</v>
+      <c r="D18" s="69" t="s">
+        <v>1293</v>
       </c>
       <c r="E18" s="38" t="s">
         <v>854</v>
@@ -44045,8 +44034,8 @@
       <c r="C19" s="38" t="s">
         <v>857</v>
       </c>
-      <c r="D19" s="38" t="s">
-        <v>413</v>
+      <c r="D19" s="69" t="s">
+        <v>1293</v>
       </c>
       <c r="E19" s="38" t="s">
         <v>858</v>
@@ -44078,17 +44067,17 @@
       <c r="C20" s="38" t="s">
         <v>861</v>
       </c>
-      <c r="D20" s="38" t="s">
+      <c r="D20" s="69" t="s">
+        <v>1293</v>
+      </c>
+      <c r="E20" s="38" t="s">
         <v>862</v>
-      </c>
-      <c r="E20" s="38" t="s">
-        <v>863</v>
       </c>
       <c r="F20" s="38" t="s">
         <v>575</v>
       </c>
       <c r="G20" s="38" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H20" s="37" t="s">
         <v>785</v>
@@ -44103,28 +44092,28 @@
     </row>
     <row r="21" spans="1:11" ht="166.5" customHeight="1">
       <c r="A21" s="37" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B21" s="38" t="s">
         <v>781</v>
       </c>
       <c r="C21" s="38" t="s">
+        <v>865</v>
+      </c>
+      <c r="D21" s="69" t="s">
+        <v>1293</v>
+      </c>
+      <c r="E21" s="38" t="s">
         <v>866</v>
-      </c>
-      <c r="D21" s="38" t="s">
-        <v>867</v>
-      </c>
-      <c r="E21" s="38" t="s">
-        <v>868</v>
       </c>
       <c r="F21" s="38" t="s">
         <v>575</v>
       </c>
       <c r="G21" s="38" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="H21" s="51" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="I21" s="37" t="s">
         <v>49</v>
@@ -44133,30 +44122,30 @@
         <v>313</v>
       </c>
       <c r="K21" s="48" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="162" customHeight="1">
       <c r="A22" s="37" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B22" s="38" t="s">
         <v>781</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>872</v>
-      </c>
-      <c r="D22" s="38" t="s">
-        <v>413</v>
+        <v>870</v>
+      </c>
+      <c r="D22" s="69" t="s">
+        <v>1293</v>
       </c>
       <c r="E22" s="38" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F22" s="38" t="s">
         <v>575</v>
       </c>
       <c r="G22" s="38" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="H22" s="37" t="s">
         <v>785</v>
@@ -44171,25 +44160,25 @@
     </row>
     <row r="23" spans="1:11" ht="132" customHeight="1">
       <c r="A23" s="37" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B23" s="38" t="s">
         <v>781</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>876</v>
-      </c>
-      <c r="D23" s="38" t="s">
-        <v>867</v>
+        <v>874</v>
+      </c>
+      <c r="D23" s="69" t="s">
+        <v>1293</v>
       </c>
       <c r="E23" s="38" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="F23" s="38" t="s">
         <v>575</v>
       </c>
       <c r="G23" s="38" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="H23" s="37" t="s">
         <v>785</v>
@@ -44204,25 +44193,25 @@
     </row>
     <row r="24" spans="1:11" ht="111" customHeight="1">
       <c r="A24" s="37" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B24" s="38" t="s">
         <v>781</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>880</v>
-      </c>
-      <c r="D24" s="38" t="s">
-        <v>881</v>
+        <v>878</v>
+      </c>
+      <c r="D24" s="69" t="s">
+        <v>1293</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="F24" s="38" t="s">
         <v>575</v>
       </c>
       <c r="G24" s="38" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="H24" s="37" t="s">
         <v>785</v>
@@ -44237,25 +44226,25 @@
     </row>
     <row r="25" spans="1:11" ht="105.75" customHeight="1">
       <c r="A25" s="37" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="B25" s="38" t="s">
         <v>781</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>885</v>
-      </c>
-      <c r="D25" s="38" t="s">
-        <v>881</v>
+        <v>882</v>
+      </c>
+      <c r="D25" s="69" t="s">
+        <v>1293</v>
       </c>
       <c r="E25" s="38" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="F25" s="38" t="s">
         <v>575</v>
       </c>
       <c r="G25" s="38" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="H25" s="37" t="s">
         <v>785</v>
@@ -44270,25 +44259,25 @@
     </row>
     <row r="26" spans="1:11" ht="163.5" customHeight="1">
       <c r="A26" s="37" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="B26" s="38" t="s">
         <v>781</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>889</v>
-      </c>
-      <c r="D26" s="38" t="s">
-        <v>890</v>
+        <v>886</v>
+      </c>
+      <c r="D26" s="69" t="s">
+        <v>1293</v>
       </c>
       <c r="E26" s="38" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="F26" s="38" t="s">
         <v>575</v>
       </c>
       <c r="G26" s="38" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="H26" s="37" t="s">
         <v>785</v>
@@ -44303,25 +44292,25 @@
     </row>
     <row r="27" spans="1:11" ht="170.25" customHeight="1">
       <c r="A27" s="37" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="B27" s="38" t="s">
         <v>781</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>894</v>
-      </c>
-      <c r="D27" s="38" t="s">
         <v>890</v>
       </c>
+      <c r="D27" s="69" t="s">
+        <v>1293</v>
+      </c>
       <c r="E27" s="38" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="F27" s="38" t="s">
         <v>575</v>
       </c>
       <c r="G27" s="38" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="H27" s="37" t="s">
         <v>785</v>
@@ -44336,25 +44325,25 @@
     </row>
     <row r="28" spans="1:11" ht="189.75" customHeight="1">
       <c r="A28" s="37" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="B28" s="38" t="s">
         <v>781</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>897</v>
-      </c>
-      <c r="D28" s="38" t="s">
-        <v>890</v>
+        <v>893</v>
+      </c>
+      <c r="D28" s="69" t="s">
+        <v>1293</v>
       </c>
       <c r="E28" s="38" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="F28" s="38" t="s">
         <v>575</v>
       </c>
       <c r="G28" s="38" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="H28" s="37" t="s">
         <v>785</v>
@@ -44369,25 +44358,25 @@
     </row>
     <row r="29" spans="1:11" ht="234.75" customHeight="1">
       <c r="A29" s="37" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="B29" s="38" t="s">
         <v>781</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>900</v>
-      </c>
-      <c r="D29" s="38" t="s">
-        <v>890</v>
+        <v>896</v>
+      </c>
+      <c r="D29" s="69" t="s">
+        <v>1293</v>
       </c>
       <c r="E29" s="38" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="F29" s="38" t="s">
         <v>575</v>
       </c>
       <c r="G29" s="38" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="H29" s="37" t="s">
         <v>785</v>
@@ -44402,25 +44391,25 @@
     </row>
     <row r="30" spans="1:11" ht="165.75" customHeight="1">
       <c r="A30" s="37" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B30" s="38" t="s">
         <v>781</v>
       </c>
       <c r="C30" s="38" t="s">
-        <v>903</v>
-      </c>
-      <c r="D30" s="38" t="s">
-        <v>890</v>
+        <v>899</v>
+      </c>
+      <c r="D30" s="69" t="s">
+        <v>1293</v>
       </c>
       <c r="E30" s="38" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="F30" s="38" t="s">
         <v>575</v>
       </c>
       <c r="G30" s="38" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="H30" s="37" t="s">
         <v>785</v>
@@ -44435,25 +44424,25 @@
     </row>
     <row r="31" spans="1:11" ht="154.5" customHeight="1">
       <c r="A31" s="37" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="B31" s="38" t="s">
         <v>781</v>
       </c>
       <c r="C31" s="38" t="s">
-        <v>906</v>
-      </c>
-      <c r="D31" s="38" t="s">
-        <v>890</v>
+        <v>902</v>
+      </c>
+      <c r="D31" s="69" t="s">
+        <v>1293</v>
       </c>
       <c r="E31" s="38" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="F31" s="38" t="s">
         <v>575</v>
       </c>
       <c r="G31" s="38" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="H31" s="37" t="s">
         <v>785</v>
@@ -44468,25 +44457,25 @@
     </row>
     <row r="32" spans="1:11" ht="144" customHeight="1">
       <c r="A32" s="37" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="B32" s="38" t="s">
         <v>781</v>
       </c>
       <c r="C32" s="38" t="s">
-        <v>909</v>
-      </c>
-      <c r="D32" s="38" t="s">
-        <v>890</v>
+        <v>905</v>
+      </c>
+      <c r="D32" s="69" t="s">
+        <v>1293</v>
       </c>
       <c r="E32" s="38" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="F32" s="38" t="s">
         <v>814</v>
       </c>
       <c r="G32" s="38" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="H32" s="37" t="s">
         <v>785</v>
@@ -44501,25 +44490,25 @@
     </row>
     <row r="33" spans="1:15" ht="169.5" customHeight="1">
       <c r="A33" s="37" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="B33" s="38" t="s">
         <v>781</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>913</v>
-      </c>
-      <c r="D33" s="38" t="s">
-        <v>890</v>
+        <v>909</v>
+      </c>
+      <c r="D33" s="69" t="s">
+        <v>1293</v>
       </c>
       <c r="E33" s="38" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="F33" s="38" t="s">
         <v>814</v>
       </c>
       <c r="G33" s="38" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="H33" s="37" t="s">
         <v>785</v>
@@ -44534,25 +44523,25 @@
     </row>
     <row r="34" spans="1:15" ht="182.25" customHeight="1">
       <c r="A34" s="37" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="B34" s="38" t="s">
         <v>781</v>
       </c>
       <c r="C34" s="38" t="s">
-        <v>917</v>
-      </c>
-      <c r="D34" s="38" t="s">
-        <v>890</v>
+        <v>913</v>
+      </c>
+      <c r="D34" s="69" t="s">
+        <v>1293</v>
       </c>
       <c r="E34" s="38" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="F34" s="38" t="s">
         <v>814</v>
       </c>
       <c r="G34" s="38" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="H34" s="37" t="s">
         <v>785</v>
@@ -44567,25 +44556,25 @@
     </row>
     <row r="35" spans="1:15" ht="140.25" customHeight="1">
       <c r="A35" s="37" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="B35" s="38" t="s">
         <v>781</v>
       </c>
       <c r="C35" s="38" t="s">
-        <v>921</v>
-      </c>
-      <c r="D35" s="38" t="s">
-        <v>890</v>
+        <v>917</v>
+      </c>
+      <c r="D35" s="69" t="s">
+        <v>1293</v>
       </c>
       <c r="E35" s="38" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="F35" s="38" t="s">
         <v>814</v>
       </c>
       <c r="G35" s="38" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="H35" s="37" t="s">
         <v>785</v>
@@ -44600,25 +44589,25 @@
     </row>
     <row r="36" spans="1:15" ht="154.5" customHeight="1">
       <c r="A36" s="37" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="B36" s="38" t="s">
         <v>781</v>
       </c>
       <c r="C36" s="38" t="s">
-        <v>925</v>
-      </c>
-      <c r="D36" s="38" t="s">
-        <v>573</v>
+        <v>921</v>
+      </c>
+      <c r="D36" s="69" t="s">
+        <v>1293</v>
       </c>
       <c r="E36" s="38" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="F36" s="38" t="s">
         <v>744</v>
       </c>
       <c r="G36" s="38" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="H36" s="37" t="s">
         <v>785</v>
@@ -44633,25 +44622,25 @@
     </row>
     <row r="37" spans="1:15" ht="106.5" customHeight="1">
       <c r="A37" s="37" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="B37" s="38" t="s">
         <v>781</v>
       </c>
       <c r="C37" s="38" t="s">
-        <v>929</v>
-      </c>
-      <c r="D37" s="38" t="s">
-        <v>573</v>
+        <v>925</v>
+      </c>
+      <c r="D37" s="69" t="s">
+        <v>1293</v>
       </c>
       <c r="E37" s="38" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="F37" s="38" t="s">
         <v>744</v>
       </c>
       <c r="G37" s="38" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="H37" s="37" t="s">
         <v>785</v>
@@ -44670,25 +44659,25 @@
     </row>
     <row r="38" spans="1:15" ht="108.75" customHeight="1">
       <c r="A38" s="37" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="B38" s="38" t="s">
         <v>781</v>
       </c>
       <c r="C38" s="38" t="s">
-        <v>933</v>
-      </c>
-      <c r="D38" s="38" t="s">
-        <v>573</v>
+        <v>929</v>
+      </c>
+      <c r="D38" s="69" t="s">
+        <v>1293</v>
       </c>
       <c r="E38" s="38" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="F38" s="38" t="s">
         <v>744</v>
       </c>
       <c r="G38" s="38" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="H38" s="37" t="s">
         <v>785</v>
@@ -44777,25 +44766,25 @@
     </row>
     <row r="2" spans="1:11" ht="166.5" customHeight="1">
       <c r="A2" s="31" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="D2" s="32" t="s">
         <v>413</v>
       </c>
       <c r="E2" s="65" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="F2" s="32" t="s">
         <v>575</v>
       </c>
       <c r="G2" s="65" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="H2" s="34" t="s">
         <v>785</v>
@@ -44810,28 +44799,28 @@
     </row>
     <row r="3" spans="1:11" ht="107.25" customHeight="1">
       <c r="A3" s="37" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="E3" s="66" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="F3" s="38" t="s">
         <v>575</v>
       </c>
       <c r="G3" s="66" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="H3" s="45" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="I3" s="41" t="s">
         <v>25</v>
@@ -44840,30 +44829,30 @@
         <v>110</v>
       </c>
       <c r="K3" s="67" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="175.5" customHeight="1">
       <c r="A4" s="37" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="D4" s="38" t="s">
         <v>413</v>
       </c>
       <c r="E4" s="66" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="F4" s="38" t="s">
         <v>575</v>
       </c>
       <c r="G4" s="66" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="H4" s="40" t="s">
         <v>785</v>
@@ -44878,25 +44867,25 @@
     </row>
     <row r="5" spans="1:11" ht="157.5" customHeight="1">
       <c r="A5" s="37" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="D5" s="38" t="s">
         <v>413</v>
       </c>
       <c r="E5" s="66" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="F5" s="38" t="s">
         <v>814</v>
       </c>
       <c r="G5" s="66" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="H5" s="40" t="s">
         <v>785</v>
@@ -44911,25 +44900,25 @@
     </row>
     <row r="6" spans="1:11" ht="183.75" customHeight="1">
       <c r="A6" s="37" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="D6" s="38" t="s">
         <v>413</v>
       </c>
       <c r="E6" s="66" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="F6" s="38" t="s">
         <v>99</v>
       </c>
       <c r="G6" s="66" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="H6" s="40" t="s">
         <v>785</v>
@@ -44944,25 +44933,25 @@
     </row>
     <row r="7" spans="1:11" ht="123" customHeight="1">
       <c r="A7" s="37" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="D7" s="38" t="s">
         <v>413</v>
       </c>
       <c r="E7" s="66" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="F7" s="38" t="s">
         <v>99</v>
       </c>
       <c r="G7" s="66" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="H7" s="40" t="s">
         <v>785</v>
@@ -44977,28 +44966,28 @@
     </row>
     <row r="8" spans="1:11" ht="117.75" customHeight="1">
       <c r="A8" s="37" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="E8" s="66" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="F8" s="38" t="s">
         <v>575</v>
       </c>
       <c r="G8" s="66" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="H8" s="45" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="I8" s="41" t="s">
         <v>25</v>
@@ -45007,30 +44996,30 @@
         <v>313</v>
       </c>
       <c r="K8" s="68" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="81.75" customHeight="1">
       <c r="A9" s="37" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="B9" s="38" t="s">
         <v>781</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="D9" s="38" t="s">
         <v>573</v>
       </c>
       <c r="E9" s="66" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="F9" s="38" t="s">
         <v>744</v>
       </c>
       <c r="G9" s="66" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="H9" s="40" t="s">
         <v>785</v>
@@ -45045,25 +45034,25 @@
     </row>
     <row r="10" spans="1:11" ht="87.75" customHeight="1">
       <c r="A10" s="37" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="B10" s="38" t="s">
         <v>781</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="D10" s="38" t="s">
         <v>573</v>
       </c>
       <c r="E10" s="66" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="F10" s="38" t="s">
         <v>744</v>
       </c>
       <c r="G10" s="66" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="H10" s="40" t="s">
         <v>785</v>

--- a/OpenCart-ManualTesting-main/Test Execution (Open Cart ).xlsx
+++ b/OpenCart-ManualTesting-main/Test Execution (Open Cart ).xlsx
@@ -6068,7 +6068,7 @@
 </t>
   </si>
   <si>
-    <t>1. Validate Registering an Account by providing only 
+    <t>Validate Registering an Account by providing only 
 the Mandatory fields.</t>
   </si>
 </sst>

--- a/OpenCart-ManualTesting-main/Test Execution (Open Cart ).xlsx
+++ b/OpenCart-ManualTesting-main/Test Execution (Open Cart ).xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2927" uniqueCount="1298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2928" uniqueCount="1298">
   <si>
     <t>Project Name</t>
   </si>
@@ -10806,7 +10806,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -10954,6 +10954,9 @@
       </c>
       <c r="D5" s="88" t="s">
         <v>110</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>111</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>98</v>

--- a/OpenCart-ManualTesting-main/Test Execution (Open Cart ).xlsx
+++ b/OpenCart-ManualTesting-main/Test Execution (Open Cart ).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" firstSheet="8" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -8764,14 +8764,14 @@
   </sheetPr>
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="25.26953125" customWidth="1"/>
+    <col min="2" max="2" width="22.6328125" customWidth="1"/>
     <col min="3" max="3" width="62.90625" customWidth="1"/>
     <col min="4" max="4" width="57.08984375" customWidth="1"/>
     <col min="5" max="5" width="56.08984375" customWidth="1"/>
@@ -9620,8 +9620,8 @@
   </sheetPr>
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView topLeftCell="H10" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -9634,8 +9634,8 @@
     <col min="6" max="6" width="51.08984375" customWidth="1"/>
     <col min="7" max="7" width="70.7265625" customWidth="1"/>
     <col min="8" max="8" width="52.453125" customWidth="1"/>
-    <col min="10" max="10" width="20.7265625" customWidth="1"/>
-    <col min="11" max="11" width="24.6328125" customWidth="1"/>
+    <col min="10" max="10" width="10.453125" customWidth="1"/>
+    <col min="11" max="11" width="13.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="38.25" customHeight="1">
@@ -10805,8 +10805,8 @@
   </sheetPr>
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="B25" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -11724,8 +11724,8 @@
   </sheetPr>
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView topLeftCell="A19" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -12594,7 +12594,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -41786,8 +41786,8 @@
   </sheetPr>
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView topLeftCell="C19" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView topLeftCell="C15" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>

--- a/OpenCart-ManualTesting-main/Test Execution (Open Cart ).xlsx
+++ b/OpenCart-ManualTesting-main/Test Execution (Open Cart ).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" firstSheet="8" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -6993,7 +6993,7 @@
   <dimension ref="B2:F41"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -8764,7 +8764,7 @@
   </sheetPr>
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -10805,8 +10805,8 @@
   </sheetPr>
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView topLeftCell="B25" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>

--- a/OpenCart-ManualTesting-main/Test Execution (Open Cart ).xlsx
+++ b/OpenCart-ManualTesting-main/Test Execution (Open Cart ).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" firstSheet="6" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" firstSheet="8" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -7619,8 +7619,8 @@
   </sheetPr>
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -7683,7 +7683,7 @@
         <v>951</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>397</v>
+        <v>555</v>
       </c>
       <c r="E2" s="31" t="s">
         <v>952</v>
@@ -7781,8 +7781,8 @@
       <c r="C5" s="36" t="s">
         <v>963</v>
       </c>
-      <c r="D5" s="36" t="s">
-        <v>397</v>
+      <c r="D5" s="31" t="s">
+        <v>555</v>
       </c>
       <c r="E5" s="36" t="s">
         <v>964</v>
@@ -7814,8 +7814,8 @@
       <c r="C6" s="36" t="s">
         <v>966</v>
       </c>
-      <c r="D6" s="36" t="s">
-        <v>397</v>
+      <c r="D6" s="31" t="s">
+        <v>555</v>
       </c>
       <c r="E6" s="36" t="s">
         <v>967</v>
@@ -7847,8 +7847,8 @@
       <c r="C7" s="36" t="s">
         <v>970</v>
       </c>
-      <c r="D7" s="36" t="s">
-        <v>397</v>
+      <c r="D7" s="31" t="s">
+        <v>555</v>
       </c>
       <c r="E7" s="36" t="s">
         <v>971</v>
@@ -8027,7 +8027,7 @@
   </sheetPr>
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
@@ -8764,7 +8764,7 @@
   </sheetPr>
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="D16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -9126,7 +9126,7 @@
   </sheetPr>
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView topLeftCell="G16" workbookViewId="0">
+    <sheetView topLeftCell="G22" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -9620,8 +9620,8 @@
   </sheetPr>
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -10080,7 +10080,7 @@
         <v>1205</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>1185</v>
+        <v>555</v>
       </c>
       <c r="E14" s="36" t="s">
         <v>1206</v>
@@ -43495,8 +43495,8 @@
   </sheetPr>
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -44797,7 +44797,7 @@
   </sheetPr>
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
